--- a/listaFamilia/res/LISTA DE FAMÍLIAS 2016.xlsx
+++ b/listaFamilia/res/LISTA DE FAMÍLIAS 2016.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1300" uniqueCount="1185">
   <si>
     <t>Sobrenome</t>
   </si>
@@ -3611,6 +3611,15 @@
   </si>
   <si>
     <t>atamanczuk.jpg</t>
+  </si>
+  <si>
+    <t>ramios.jpg</t>
+  </si>
+  <si>
+    <t>arino.jpg</t>
+  </si>
+  <si>
+    <t>JORGE</t>
   </si>
 </sst>
 </file>
@@ -3801,12 +3810,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="57">
+  <cellStyleXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -4081,6 +4093,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4117,11 +4132,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="57">
+  <cellStyles count="60">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -4175,6 +4187,9 @@
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="55" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="59" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -4512,11 +4527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K458"/>
+  <dimension ref="A1:K460"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
+      <pane ySplit="1" topLeftCell="A440" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A459" sqref="A459"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4698,7 +4713,7 @@
         <v>720</v>
       </c>
       <c r="J7" s="18"/>
-      <c r="K7" s="78" t="s">
+      <c r="K7" s="79" t="s">
         <v>22</v>
       </c>
     </row>
@@ -4723,7 +4738,7 @@
         <v>1121</v>
       </c>
       <c r="J8" s="18"/>
-      <c r="K8" s="78"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="53"/>
@@ -4746,7 +4761,7 @@
         <v>722</v>
       </c>
       <c r="J9" s="18"/>
-      <c r="K9" s="78"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="18"/>
@@ -4782,7 +4797,7 @@
         <v>725</v>
       </c>
       <c r="J11" s="18"/>
-      <c r="K11" s="79" t="s">
+      <c r="K11" s="80" t="s">
         <v>726</v>
       </c>
     </row>
@@ -4805,7 +4820,7 @@
         <v>729</v>
       </c>
       <c r="J12" s="18"/>
-      <c r="K12" s="80"/>
+      <c r="K12" s="81"/>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="53"/>
@@ -4822,7 +4837,7 @@
       <c r="H13" s="19"/>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
-      <c r="K13" s="88"/>
+      <c r="K13" s="89"/>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="18"/>
@@ -4858,7 +4873,7 @@
         <v>722</v>
       </c>
       <c r="J15" s="18"/>
-      <c r="K15" s="79" t="s">
+      <c r="K15" s="80" t="s">
         <v>732</v>
       </c>
     </row>
@@ -4877,7 +4892,7 @@
         <v>733</v>
       </c>
       <c r="J16" s="18"/>
-      <c r="K16" s="80"/>
+      <c r="K16" s="81"/>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="53"/>
@@ -4894,7 +4909,7 @@
       <c r="H17" s="19"/>
       <c r="I17" s="18"/>
       <c r="J17" s="18"/>
-      <c r="K17" s="80"/>
+      <c r="K17" s="81"/>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="18"/>
@@ -4938,7 +4953,7 @@
       <c r="J19" s="20" t="s">
         <v>536</v>
       </c>
-      <c r="K19" s="79" t="s">
+      <c r="K19" s="80" t="s">
         <v>737</v>
       </c>
     </row>
@@ -4965,7 +4980,7 @@
       <c r="J20" s="20" t="s">
         <v>740</v>
       </c>
-      <c r="K20" s="80"/>
+      <c r="K20" s="81"/>
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="57"/>
@@ -4988,7 +5003,7 @@
       <c r="J21" s="20" t="s">
         <v>743</v>
       </c>
-      <c r="K21" s="80"/>
+      <c r="K21" s="81"/>
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="53"/>
@@ -5011,7 +5026,7 @@
       <c r="J22" s="20" t="s">
         <v>746</v>
       </c>
-      <c r="K22" s="88"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="1:11">
       <c r="A23" s="18"/>
@@ -5055,7 +5070,7 @@
       <c r="J24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="K24" s="78" t="s">
+      <c r="K24" s="79" t="s">
         <v>748</v>
       </c>
     </row>
@@ -5080,7 +5095,7 @@
       <c r="J25" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="78"/>
+      <c r="K25" s="79"/>
     </row>
     <row r="26" spans="1:11">
       <c r="A26" s="57"/>
@@ -5097,7 +5112,7 @@
       <c r="H26" s="19"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="78"/>
+      <c r="K26" s="79"/>
     </row>
     <row r="27" spans="1:11">
       <c r="A27" s="53"/>
@@ -5114,7 +5129,7 @@
       <c r="H27" s="19"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="78"/>
+      <c r="K27" s="79"/>
     </row>
     <row r="28" spans="1:11">
       <c r="A28" s="18"/>
@@ -5158,7 +5173,7 @@
         <v>716</v>
       </c>
       <c r="J29" s="25"/>
-      <c r="K29" s="78" t="s">
+      <c r="K29" s="79" t="s">
         <v>37</v>
       </c>
     </row>
@@ -5185,7 +5200,7 @@
       <c r="J30" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="K30" s="78"/>
+      <c r="K30" s="79"/>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" s="18"/>
@@ -5213,7 +5228,9 @@
       <c r="D32" s="68" t="s">
         <v>716</v>
       </c>
-      <c r="E32" s="19"/>
+      <c r="E32" s="19" t="s">
+        <v>1183</v>
+      </c>
       <c r="F32" s="19" t="s">
         <v>277</v>
       </c>
@@ -5229,7 +5246,7 @@
       <c r="J32" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="K32" s="79" t="s">
+      <c r="K32" s="80" t="s">
         <v>759</v>
       </c>
     </row>
@@ -5250,7 +5267,7 @@
       <c r="J33" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="K33" s="80"/>
+      <c r="K33" s="81"/>
     </row>
     <row r="34" spans="1:11">
       <c r="A34" s="53"/>
@@ -5269,7 +5286,7 @@
       <c r="J34" s="19" t="s">
         <v>716</v>
       </c>
-      <c r="K34" s="88"/>
+      <c r="K34" s="89"/>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" s="18"/>
@@ -5329,7 +5346,7 @@
       <c r="K37" s="21"/>
     </row>
     <row r="38" spans="1:11" ht="30">
-      <c r="A38" s="79" t="s">
+      <c r="A38" s="80" t="s">
         <v>1128</v>
       </c>
       <c r="B38" s="18" t="s">
@@ -5359,12 +5376,12 @@
       <c r="J38" s="20" t="s">
         <v>769</v>
       </c>
-      <c r="K38" s="79" t="s">
+      <c r="K38" s="80" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="80"/>
+      <c r="A39" s="81"/>
       <c r="B39" s="18" t="s">
         <v>771</v>
       </c>
@@ -5378,10 +5395,10 @@
       <c r="H39" s="19"/>
       <c r="I39" s="18"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="80"/>
+      <c r="K39" s="81"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="88"/>
+      <c r="A40" s="89"/>
       <c r="B40" s="18" t="s">
         <v>772</v>
       </c>
@@ -5395,7 +5412,7 @@
       <c r="H40" s="19"/>
       <c r="I40" s="18"/>
       <c r="J40" s="19"/>
-      <c r="K40" s="88"/>
+      <c r="K40" s="89"/>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" s="18"/>
@@ -5491,7 +5508,7 @@
       <c r="K45" s="21"/>
     </row>
     <row r="46" spans="1:11" s="26" customFormat="1">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="86" t="s">
         <v>51</v>
       </c>
       <c r="B46" s="9" t="s">
@@ -5513,12 +5530,12 @@
       <c r="J46" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="K46" s="85" t="s">
+      <c r="K46" s="86" t="s">
         <v>993</v>
       </c>
     </row>
     <row r="47" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A47" s="87"/>
+      <c r="A47" s="88"/>
       <c r="B47" s="9" t="s">
         <v>54</v>
       </c>
@@ -5534,7 +5551,7 @@
       <c r="H47" s="9"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="87"/>
+      <c r="K47" s="88"/>
     </row>
     <row r="48" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A48" s="9"/>
@@ -5550,7 +5567,7 @@
       <c r="K48" s="9"/>
     </row>
     <row r="49" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A49" s="85" t="s">
+      <c r="A49" s="86" t="s">
         <v>995</v>
       </c>
       <c r="B49" s="9" t="s">
@@ -5575,7 +5592,7 @@
       </c>
     </row>
     <row r="50" spans="1:11" s="26" customFormat="1">
-      <c r="A50" s="87"/>
+      <c r="A50" s="88"/>
       <c r="B50" s="9" t="s">
         <v>1129</v>
       </c>
@@ -5637,7 +5654,7 @@
       <c r="J52" s="27" t="s">
         <v>778</v>
       </c>
-      <c r="K52" s="79" t="s">
+      <c r="K52" s="80" t="s">
         <v>62</v>
       </c>
     </row>
@@ -5664,7 +5681,7 @@
       <c r="J53" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="K53" s="80"/>
+      <c r="K53" s="81"/>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" s="57"/>
@@ -5689,7 +5706,7 @@
       <c r="J54" s="20" t="s">
         <v>782</v>
       </c>
-      <c r="K54" s="80"/>
+      <c r="K54" s="81"/>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" s="53"/>
@@ -5712,7 +5729,7 @@
       <c r="J55" s="20" t="s">
         <v>784</v>
       </c>
-      <c r="K55" s="80"/>
+      <c r="K55" s="81"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" s="28"/>
@@ -5754,7 +5771,7 @@
       <c r="J57" s="20" t="s">
         <v>918</v>
       </c>
-      <c r="K57" s="78" t="s">
+      <c r="K57" s="79" t="s">
         <v>70</v>
       </c>
     </row>
@@ -5777,7 +5794,7 @@
       <c r="J58" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="K58" s="78"/>
+      <c r="K58" s="79"/>
     </row>
     <row r="59" spans="1:11">
       <c r="A59" s="18"/>
@@ -5794,7 +5811,7 @@
       <c r="H59" s="18"/>
       <c r="I59" s="18"/>
       <c r="J59" s="18"/>
-      <c r="K59" s="78"/>
+      <c r="K59" s="79"/>
     </row>
     <row r="60" spans="1:11">
       <c r="A60" s="18"/>
@@ -5811,7 +5828,7 @@
       <c r="H60" s="18"/>
       <c r="I60" s="18"/>
       <c r="J60" s="18"/>
-      <c r="K60" s="78"/>
+      <c r="K60" s="79"/>
     </row>
     <row r="61" spans="1:11">
       <c r="A61" s="18"/>
@@ -5853,7 +5870,7 @@
       <c r="J62" s="30" t="s">
         <v>1001</v>
       </c>
-      <c r="K62" s="84" t="s">
+      <c r="K62" s="85" t="s">
         <v>1002</v>
       </c>
     </row>
@@ -5880,7 +5897,7 @@
       <c r="J63" s="20" t="s">
         <v>1006</v>
       </c>
-      <c r="K63" s="84"/>
+      <c r="K63" s="85"/>
     </row>
     <row r="64" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A64" s="55"/>
@@ -5897,7 +5914,7 @@
       <c r="H64" s="9"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="84"/>
+      <c r="K64" s="85"/>
     </row>
     <row r="65" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A65" s="56"/>
@@ -5914,7 +5931,7 @@
       <c r="H65" s="9"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="84"/>
+      <c r="K65" s="85"/>
     </row>
     <row r="66" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A66" s="9"/>
@@ -6000,7 +6017,7 @@
       <c r="J69" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="K69" s="78" t="s">
+      <c r="K69" s="79" t="s">
         <v>88</v>
       </c>
     </row>
@@ -6027,7 +6044,7 @@
       <c r="J70" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="K70" s="78"/>
+      <c r="K70" s="79"/>
     </row>
     <row r="71" spans="1:11">
       <c r="A71" s="18"/>
@@ -6044,7 +6061,7 @@
       <c r="H71" s="18"/>
       <c r="I71" s="18"/>
       <c r="J71" s="18"/>
-      <c r="K71" s="78"/>
+      <c r="K71" s="79"/>
     </row>
     <row r="72" spans="1:11">
       <c r="A72" s="18"/>
@@ -6086,7 +6103,7 @@
       <c r="J73" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="K73" s="78" t="s">
+      <c r="K73" s="79" t="s">
         <v>96</v>
       </c>
     </row>
@@ -6109,7 +6126,7 @@
       <c r="J74" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="K74" s="78"/>
+      <c r="K74" s="79"/>
     </row>
     <row r="75" spans="1:11">
       <c r="A75" s="18"/>
@@ -6125,7 +6142,7 @@
       <c r="K75" s="21"/>
     </row>
     <row r="76" spans="1:11">
-      <c r="A76" s="79" t="s">
+      <c r="A76" s="80" t="s">
         <v>99</v>
       </c>
       <c r="B76" s="18" t="s">
@@ -6149,12 +6166,12 @@
       <c r="J76" s="20" t="s">
         <v>789</v>
       </c>
-      <c r="K76" s="79" t="s">
+      <c r="K76" s="80" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="77" spans="1:11">
-      <c r="A77" s="88"/>
+      <c r="A77" s="89"/>
       <c r="B77" s="18" t="s">
         <v>791</v>
       </c>
@@ -6172,7 +6189,7 @@
       <c r="J77" s="20" t="s">
         <v>792</v>
       </c>
-      <c r="K77" s="88"/>
+      <c r="K77" s="89"/>
     </row>
     <row r="78" spans="1:11">
       <c r="A78" s="32"/>
@@ -6324,7 +6341,7 @@
       <c r="J85" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="K85" s="78" t="s">
+      <c r="K85" s="79" t="s">
         <v>119</v>
       </c>
     </row>
@@ -6349,7 +6366,7 @@
       <c r="J86" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="K86" s="78"/>
+      <c r="K86" s="79"/>
     </row>
     <row r="87" spans="1:11">
       <c r="A87" s="18"/>
@@ -6391,7 +6408,7 @@
       <c r="J88" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="K88" s="78" t="s">
+      <c r="K88" s="79" t="s">
         <v>126</v>
       </c>
     </row>
@@ -6414,7 +6431,7 @@
       <c r="J89" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="K89" s="78"/>
+      <c r="K89" s="79"/>
     </row>
     <row r="90" spans="1:11">
       <c r="A90" s="18"/>
@@ -6431,7 +6448,7 @@
       <c r="H90" s="18"/>
       <c r="I90" s="18"/>
       <c r="J90" s="18"/>
-      <c r="K90" s="78"/>
+      <c r="K90" s="79"/>
     </row>
     <row r="91" spans="1:11">
       <c r="A91" s="18"/>
@@ -6447,7 +6464,7 @@
       <c r="K91" s="21"/>
     </row>
     <row r="92" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A92" s="85" t="s">
+      <c r="A92" s="86" t="s">
         <v>108</v>
       </c>
       <c r="B92" s="9" t="s">
@@ -6470,7 +6487,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A93" s="87"/>
+      <c r="A93" s="88"/>
       <c r="B93" s="9" t="s">
         <v>115</v>
       </c>
@@ -6540,7 +6557,7 @@
       <c r="K96" s="31"/>
     </row>
     <row r="97" spans="1:11">
-      <c r="A97" s="79" t="s">
+      <c r="A97" s="80" t="s">
         <v>148</v>
       </c>
       <c r="B97" s="18" t="s">
@@ -6568,12 +6585,12 @@
       <c r="J97" s="20" t="s">
         <v>798</v>
       </c>
-      <c r="K97" s="79" t="s">
+      <c r="K97" s="80" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:11">
-      <c r="A98" s="88"/>
+      <c r="A98" s="89"/>
       <c r="B98" s="18" t="s">
         <v>799</v>
       </c>
@@ -6593,7 +6610,7 @@
       <c r="J98" s="20" t="s">
         <v>801</v>
       </c>
-      <c r="K98" s="80"/>
+      <c r="K98" s="81"/>
     </row>
     <row r="99" spans="1:11">
       <c r="A99" s="18"/>
@@ -6818,7 +6835,7 @@
       <c r="H109" s="9"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
-      <c r="K109" s="84" t="s">
+      <c r="K109" s="85" t="s">
         <v>1015</v>
       </c>
     </row>
@@ -6837,7 +6854,7 @@
       <c r="H110" s="9"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
-      <c r="K110" s="84"/>
+      <c r="K110" s="85"/>
     </row>
     <row r="111" spans="1:11" s="26" customFormat="1" ht="14" customHeight="1">
       <c r="A111" s="59"/>
@@ -6854,7 +6871,7 @@
       <c r="H111" s="9"/>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
-      <c r="K111" s="84"/>
+      <c r="K111" s="85"/>
     </row>
     <row r="112" spans="1:11" s="26" customFormat="1" ht="42">
       <c r="A112" s="60"/>
@@ -6877,7 +6894,7 @@
       <c r="J112" s="34" t="s">
         <v>528</v>
       </c>
-      <c r="K112" s="84"/>
+      <c r="K112" s="85"/>
     </row>
     <row r="113" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A113" s="9"/>
@@ -7046,7 +7063,7 @@
       <c r="J121" s="20" t="s">
         <v>942</v>
       </c>
-      <c r="K121" s="78" t="s">
+      <c r="K121" s="79" t="s">
         <v>181</v>
       </c>
     </row>
@@ -7071,7 +7088,7 @@
       <c r="J122" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="K122" s="78"/>
+      <c r="K122" s="79"/>
     </row>
     <row r="123" spans="1:11">
       <c r="A123" s="18"/>
@@ -7088,7 +7105,7 @@
       <c r="H123" s="18"/>
       <c r="I123" s="18"/>
       <c r="J123" s="18"/>
-      <c r="K123" s="78"/>
+      <c r="K123" s="79"/>
     </row>
     <row r="124" spans="1:11">
       <c r="A124" s="18"/>
@@ -7107,7 +7124,7 @@
       <c r="H124" s="18"/>
       <c r="I124" s="18"/>
       <c r="J124" s="18"/>
-      <c r="K124" s="78"/>
+      <c r="K124" s="79"/>
     </row>
     <row r="125" spans="1:11">
       <c r="A125" s="18"/>
@@ -7145,7 +7162,7 @@
       <c r="J126" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="K126" s="84" t="s">
+      <c r="K126" s="85" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7164,7 +7181,7 @@
       <c r="H127" s="11"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
-      <c r="K127" s="84"/>
+      <c r="K127" s="85"/>
     </row>
     <row r="128" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A128" s="56"/>
@@ -7181,7 +7198,7 @@
       <c r="H128" s="11"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
-      <c r="K128" s="84"/>
+      <c r="K128" s="85"/>
     </row>
     <row r="129" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A129" s="9"/>
@@ -7223,7 +7240,7 @@
       <c r="J130" s="18" t="s">
         <v>200</v>
       </c>
-      <c r="K130" s="78" t="s">
+      <c r="K130" s="79" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7248,7 +7265,7 @@
       <c r="J131" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="K131" s="78"/>
+      <c r="K131" s="79"/>
     </row>
     <row r="132" spans="1:11">
       <c r="A132" s="18"/>
@@ -7265,7 +7282,7 @@
       <c r="H132" s="18"/>
       <c r="I132" s="18"/>
       <c r="J132" s="18"/>
-      <c r="K132" s="78"/>
+      <c r="K132" s="79"/>
     </row>
     <row r="133" spans="1:11">
       <c r="A133" s="18"/>
@@ -7282,7 +7299,7 @@
       <c r="H133" s="18"/>
       <c r="I133" s="18"/>
       <c r="J133" s="18"/>
-      <c r="K133" s="78"/>
+      <c r="K133" s="79"/>
     </row>
     <row r="134" spans="1:11">
       <c r="A134" s="18"/>
@@ -7438,7 +7455,7 @@
       <c r="J141" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="K141" s="79" t="s">
+      <c r="K141" s="80" t="s">
         <v>813</v>
       </c>
     </row>
@@ -7463,7 +7480,7 @@
       <c r="J142" s="20" t="s">
         <v>215</v>
       </c>
-      <c r="K142" s="80"/>
+      <c r="K142" s="81"/>
     </row>
     <row r="143" spans="1:11">
       <c r="A143" s="57"/>
@@ -7480,7 +7497,7 @@
       <c r="H143" s="19"/>
       <c r="I143" s="18"/>
       <c r="J143" s="18"/>
-      <c r="K143" s="80"/>
+      <c r="K143" s="81"/>
     </row>
     <row r="144" spans="1:11">
       <c r="A144" s="53"/>
@@ -7497,7 +7514,7 @@
       <c r="H144" s="19"/>
       <c r="I144" s="18"/>
       <c r="J144" s="18"/>
-      <c r="K144" s="88"/>
+      <c r="K144" s="89"/>
     </row>
     <row r="145" spans="1:11">
       <c r="A145" s="18"/>
@@ -7650,7 +7667,7 @@
       <c r="J151" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="K151" s="78" t="s">
+      <c r="K151" s="79" t="s">
         <v>255</v>
       </c>
     </row>
@@ -7677,7 +7694,7 @@
       <c r="J152" s="18" t="s">
         <v>258</v>
       </c>
-      <c r="K152" s="78"/>
+      <c r="K152" s="79"/>
     </row>
     <row r="153" spans="1:11">
       <c r="A153" s="57"/>
@@ -7702,7 +7719,7 @@
       <c r="J153" s="20" t="s">
         <v>821</v>
       </c>
-      <c r="K153" s="78"/>
+      <c r="K153" s="79"/>
     </row>
     <row r="154" spans="1:11">
       <c r="A154" s="53"/>
@@ -7727,7 +7744,7 @@
       <c r="J154" s="20" t="s">
         <v>824</v>
       </c>
-      <c r="K154" s="78"/>
+      <c r="K154" s="79"/>
     </row>
     <row r="155" spans="1:11">
       <c r="A155" s="18"/>
@@ -7771,7 +7788,7 @@
       <c r="J156" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="K156" s="84" t="s">
+      <c r="K156" s="85" t="s">
         <v>1031</v>
       </c>
     </row>
@@ -7796,7 +7813,7 @@
       <c r="J157" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="K157" s="84"/>
+      <c r="K157" s="85"/>
     </row>
     <row r="158" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A158" s="9"/>
@@ -7893,7 +7910,7 @@
       <c r="B162" s="18"/>
       <c r="C162" s="63"/>
       <c r="D162" s="68"/>
-      <c r="E162" s="90"/>
+      <c r="E162" s="78"/>
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
@@ -7928,7 +7945,7 @@
       <c r="J163" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="K163" s="84" t="s">
+      <c r="K163" s="85" t="s">
         <v>1035</v>
       </c>
     </row>
@@ -7953,7 +7970,7 @@
       <c r="J164" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="K164" s="84"/>
+      <c r="K164" s="85"/>
     </row>
     <row r="165" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A165" s="56"/>
@@ -7970,7 +7987,7 @@
       <c r="H165" s="9"/>
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
-      <c r="K165" s="84"/>
+      <c r="K165" s="85"/>
     </row>
     <row r="166" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A166" s="9"/>
@@ -8012,7 +8029,7 @@
       <c r="J167" s="20" t="s">
         <v>836</v>
       </c>
-      <c r="K167" s="79" t="s">
+      <c r="K167" s="80" t="s">
         <v>837</v>
       </c>
     </row>
@@ -8037,7 +8054,7 @@
       <c r="J168" s="20" t="s">
         <v>841</v>
       </c>
-      <c r="K168" s="88"/>
+      <c r="K168" s="89"/>
     </row>
     <row r="169" spans="1:11">
       <c r="A169" s="18"/>
@@ -8077,7 +8094,7 @@
       <c r="J170" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="K170" s="84" t="s">
+      <c r="K170" s="85" t="s">
         <v>304</v>
       </c>
     </row>
@@ -8102,7 +8119,7 @@
       <c r="J171" s="9" t="s">
         <v>306</v>
       </c>
-      <c r="K171" s="84"/>
+      <c r="K171" s="85"/>
     </row>
     <row r="172" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A172" s="9"/>
@@ -8146,7 +8163,7 @@
       <c r="J173" s="20" t="s">
         <v>843</v>
       </c>
-      <c r="K173" s="78" t="s">
+      <c r="K173" s="79" t="s">
         <v>298</v>
       </c>
     </row>
@@ -8169,7 +8186,7 @@
       <c r="J174" s="18" t="s">
         <v>297</v>
       </c>
-      <c r="K174" s="78"/>
+      <c r="K174" s="79"/>
     </row>
     <row r="175" spans="1:11">
       <c r="A175" s="53"/>
@@ -8186,7 +8203,7 @@
       <c r="H175" s="19"/>
       <c r="I175" s="18"/>
       <c r="J175" s="18"/>
-      <c r="K175" s="78"/>
+      <c r="K175" s="79"/>
     </row>
     <row r="176" spans="1:11">
       <c r="A176" s="18"/>
@@ -8232,7 +8249,7 @@
       <c r="J177" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="K177" s="78" t="s">
+      <c r="K177" s="79" t="s">
         <v>312</v>
       </c>
     </row>
@@ -8257,7 +8274,7 @@
       <c r="J178" s="18" t="s">
         <v>314</v>
       </c>
-      <c r="K178" s="78"/>
+      <c r="K178" s="79"/>
     </row>
     <row r="179" spans="1:11">
       <c r="A179" s="18"/>
@@ -8387,7 +8404,7 @@
       <c r="J184" s="20" t="s">
         <v>847</v>
       </c>
-      <c r="K184" s="79" t="s">
+      <c r="K184" s="80" t="s">
         <v>337</v>
       </c>
     </row>
@@ -8406,7 +8423,7 @@
       <c r="H185" s="19"/>
       <c r="I185" s="18"/>
       <c r="J185" s="18"/>
-      <c r="K185" s="88"/>
+      <c r="K185" s="89"/>
     </row>
     <row r="186" spans="1:11">
       <c r="A186" s="18"/>
@@ -8450,7 +8467,7 @@
       <c r="J187" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="K187" s="78" t="s">
+      <c r="K187" s="79" t="s">
         <v>343</v>
       </c>
     </row>
@@ -8469,7 +8486,7 @@
       <c r="H188" s="19"/>
       <c r="I188" s="18"/>
       <c r="J188" s="18"/>
-      <c r="K188" s="78"/>
+      <c r="K188" s="79"/>
     </row>
     <row r="189" spans="1:11">
       <c r="A189" s="57"/>
@@ -8488,7 +8505,7 @@
       <c r="H189" s="19"/>
       <c r="I189" s="18"/>
       <c r="J189" s="18"/>
-      <c r="K189" s="78"/>
+      <c r="K189" s="79"/>
     </row>
     <row r="190" spans="1:11">
       <c r="A190" s="53"/>
@@ -8505,7 +8522,7 @@
       <c r="H190" s="19"/>
       <c r="I190" s="18"/>
       <c r="J190" s="18"/>
-      <c r="K190" s="78"/>
+      <c r="K190" s="79"/>
     </row>
     <row r="191" spans="1:11">
       <c r="A191" s="18"/>
@@ -8551,7 +8568,7 @@
       <c r="J192" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="K192" s="84" t="s">
+      <c r="K192" s="85" t="s">
         <v>351</v>
       </c>
     </row>
@@ -8572,7 +8589,7 @@
       <c r="H193" s="9"/>
       <c r="I193" s="9"/>
       <c r="J193" s="9"/>
-      <c r="K193" s="84"/>
+      <c r="K193" s="85"/>
     </row>
     <row r="194" spans="1:11" s="26" customFormat="1" ht="28">
       <c r="A194" s="56"/>
@@ -8595,7 +8612,7 @@
       <c r="J194" s="20" t="s">
         <v>964</v>
       </c>
-      <c r="K194" s="84"/>
+      <c r="K194" s="85"/>
     </row>
     <row r="195" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A195" s="9"/>
@@ -8707,7 +8724,7 @@
       <c r="H200" s="19"/>
       <c r="I200" s="18"/>
       <c r="J200" s="18"/>
-      <c r="K200" s="79" t="s">
+      <c r="K200" s="80" t="s">
         <v>364</v>
       </c>
     </row>
@@ -8732,7 +8749,7 @@
       <c r="J201" s="20" t="s">
         <v>854</v>
       </c>
-      <c r="K201" s="80"/>
+      <c r="K201" s="81"/>
     </row>
     <row r="202" spans="1:11">
       <c r="A202" s="18"/>
@@ -8772,7 +8789,7 @@
         <v>965</v>
       </c>
       <c r="J203" s="18"/>
-      <c r="K203" s="78" t="s">
+      <c r="K203" s="79" t="s">
         <v>373</v>
       </c>
     </row>
@@ -8795,7 +8812,7 @@
         <v>966</v>
       </c>
       <c r="J204" s="18"/>
-      <c r="K204" s="78"/>
+      <c r="K204" s="79"/>
     </row>
     <row r="205" spans="1:11">
       <c r="A205" s="18"/>
@@ -8814,7 +8831,7 @@
       <c r="J205" s="20" t="s">
         <v>967</v>
       </c>
-      <c r="K205" s="78"/>
+      <c r="K205" s="79"/>
     </row>
     <row r="206" spans="1:11">
       <c r="A206" s="18"/>
@@ -8858,7 +8875,7 @@
       <c r="J207" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="K207" s="78" t="s">
+      <c r="K207" s="79" t="s">
         <v>391</v>
       </c>
     </row>
@@ -8879,7 +8896,7 @@
       <c r="H208" s="18"/>
       <c r="I208" s="18"/>
       <c r="J208" s="18"/>
-      <c r="K208" s="78"/>
+      <c r="K208" s="79"/>
     </row>
     <row r="209" spans="1:11">
       <c r="A209" s="18"/>
@@ -8896,7 +8913,7 @@
       <c r="H209" s="18"/>
       <c r="I209" s="18"/>
       <c r="J209" s="18"/>
-      <c r="K209" s="78"/>
+      <c r="K209" s="79"/>
     </row>
     <row r="210" spans="1:11">
       <c r="A210" s="18"/>
@@ -8913,7 +8930,7 @@
       <c r="H210" s="18"/>
       <c r="I210" s="18"/>
       <c r="J210" s="18"/>
-      <c r="K210" s="78"/>
+      <c r="K210" s="79"/>
     </row>
     <row r="211" spans="1:11">
       <c r="A211" s="18"/>
@@ -8930,7 +8947,7 @@
       <c r="H211" s="18"/>
       <c r="I211" s="18"/>
       <c r="J211" s="18"/>
-      <c r="K211" s="78"/>
+      <c r="K211" s="79"/>
     </row>
     <row r="212" spans="1:11">
       <c r="A212" s="18"/>
@@ -9062,7 +9079,7 @@
       <c r="K218" s="21"/>
     </row>
     <row r="219" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A219" s="85" t="s">
+      <c r="A219" s="86" t="s">
         <v>402</v>
       </c>
       <c r="B219" s="9" t="s">
@@ -9090,12 +9107,12 @@
       <c r="J219" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="K219" s="84" t="s">
+      <c r="K219" s="85" t="s">
         <v>1051</v>
       </c>
     </row>
     <row r="220" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A220" s="86"/>
+      <c r="A220" s="87"/>
       <c r="B220" s="9" t="s">
         <v>406</v>
       </c>
@@ -9115,10 +9132,10 @@
       <c r="J220" s="9" t="s">
         <v>408</v>
       </c>
-      <c r="K220" s="84"/>
+      <c r="K220" s="85"/>
     </row>
     <row r="221" spans="1:11" s="26" customFormat="1">
-      <c r="A221" s="86"/>
+      <c r="A221" s="87"/>
       <c r="B221" s="9" t="s">
         <v>409</v>
       </c>
@@ -9134,10 +9151,10 @@
       <c r="J221" s="20" t="s">
         <v>1052</v>
       </c>
-      <c r="K221" s="84"/>
+      <c r="K221" s="85"/>
     </row>
     <row r="222" spans="1:11" s="26" customFormat="1">
-      <c r="A222" s="86"/>
+      <c r="A222" s="87"/>
       <c r="B222" s="9" t="s">
         <v>410</v>
       </c>
@@ -9155,10 +9172,10 @@
       <c r="J222" s="20" t="s">
         <v>1054</v>
       </c>
-      <c r="K222" s="84"/>
+      <c r="K222" s="85"/>
     </row>
     <row r="223" spans="1:11" s="26" customFormat="1">
-      <c r="A223" s="87"/>
+      <c r="A223" s="88"/>
       <c r="B223" s="9" t="s">
         <v>411</v>
       </c>
@@ -9176,7 +9193,7 @@
       <c r="J223" s="20" t="s">
         <v>1056</v>
       </c>
-      <c r="K223" s="84"/>
+      <c r="K223" s="85"/>
     </row>
     <row r="224" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A224" s="9"/>
@@ -9202,7 +9219,9 @@
         <v>13397</v>
       </c>
       <c r="D225" s="63"/>
-      <c r="E225" s="18"/>
+      <c r="E225" s="18" t="s">
+        <v>1182</v>
+      </c>
       <c r="F225" s="18">
         <v>47823061</v>
       </c>
@@ -9268,7 +9287,7 @@
       <c r="K228" s="39"/>
     </row>
     <row r="229" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A229" s="81" t="s">
+      <c r="A229" s="82" t="s">
         <v>429</v>
       </c>
       <c r="B229" s="9" t="s">
@@ -9290,12 +9309,12 @@
         <v>1023</v>
       </c>
       <c r="J229" s="9"/>
-      <c r="K229" s="84" t="s">
+      <c r="K229" s="85" t="s">
         <v>1058</v>
       </c>
     </row>
     <row r="230" spans="1:11" s="26" customFormat="1" ht="28">
-      <c r="A230" s="82"/>
+      <c r="A230" s="83"/>
       <c r="B230" s="9" t="s">
         <v>1059</v>
       </c>
@@ -9315,10 +9334,10 @@
       <c r="J230" s="9" t="s">
         <v>431</v>
       </c>
-      <c r="K230" s="84"/>
+      <c r="K230" s="85"/>
     </row>
     <row r="231" spans="1:11" s="26" customFormat="1">
-      <c r="A231" s="82"/>
+      <c r="A231" s="83"/>
       <c r="B231" s="9" t="s">
         <v>1060</v>
       </c>
@@ -9336,10 +9355,10 @@
       <c r="J231" s="20" t="s">
         <v>1062</v>
       </c>
-      <c r="K231" s="84"/>
+      <c r="K231" s="85"/>
     </row>
     <row r="232" spans="1:11" s="26" customFormat="1">
-      <c r="A232" s="82"/>
+      <c r="A232" s="83"/>
       <c r="B232" s="9" t="s">
         <v>1063</v>
       </c>
@@ -9357,10 +9376,10 @@
       <c r="J232" s="20" t="s">
         <v>1065</v>
       </c>
-      <c r="K232" s="84"/>
+      <c r="K232" s="85"/>
     </row>
     <row r="233" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A233" s="83"/>
+      <c r="A233" s="84"/>
       <c r="B233" s="9" t="s">
         <v>1066</v>
       </c>
@@ -9374,7 +9393,7 @@
       <c r="H233" s="9"/>
       <c r="I233" s="9"/>
       <c r="J233" s="9"/>
-      <c r="K233" s="84"/>
+      <c r="K233" s="85"/>
     </row>
     <row r="234" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A234" s="9"/>
@@ -9390,7 +9409,7 @@
       <c r="K234" s="31"/>
     </row>
     <row r="235" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A235" s="85" t="s">
+      <c r="A235" s="86" t="s">
         <v>434</v>
       </c>
       <c r="B235" s="9" t="s">
@@ -9414,12 +9433,12 @@
       <c r="J235" s="9" t="s">
         <v>438</v>
       </c>
-      <c r="K235" s="84" t="s">
+      <c r="K235" s="85" t="s">
         <v>1067</v>
       </c>
     </row>
     <row r="236" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A236" s="86"/>
+      <c r="A236" s="87"/>
       <c r="B236" s="9" t="s">
         <v>439</v>
       </c>
@@ -9435,10 +9454,10 @@
       <c r="J236" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="K236" s="84"/>
+      <c r="K236" s="85"/>
     </row>
     <row r="237" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A237" s="87"/>
+      <c r="A237" s="88"/>
       <c r="B237" s="9" t="s">
         <v>442</v>
       </c>
@@ -9452,7 +9471,7 @@
       <c r="H237" s="9"/>
       <c r="I237" s="9"/>
       <c r="J237" s="9"/>
-      <c r="K237" s="84"/>
+      <c r="K237" s="85"/>
     </row>
     <row r="238" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A238" s="9"/>
@@ -9468,7 +9487,7 @@
       <c r="K238" s="9"/>
     </row>
     <row r="239" spans="1:11" s="26" customFormat="1">
-      <c r="A239" s="85" t="s">
+      <c r="A239" s="86" t="s">
         <v>434</v>
       </c>
       <c r="B239" s="9" t="s">
@@ -9492,12 +9511,12 @@
       <c r="J239" s="20" t="s">
         <v>1071</v>
       </c>
-      <c r="K239" s="84" t="s">
+      <c r="K239" s="85" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="240" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A240" s="87"/>
+      <c r="A240" s="88"/>
       <c r="B240" s="9" t="s">
         <v>1072</v>
       </c>
@@ -9515,7 +9534,7 @@
       <c r="J240" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="K240" s="84"/>
+      <c r="K240" s="85"/>
     </row>
     <row r="241" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A241" s="9"/>
@@ -9531,7 +9550,7 @@
       <c r="K241" s="9"/>
     </row>
     <row r="242" spans="1:11" s="26" customFormat="1">
-      <c r="A242" s="85" t="s">
+      <c r="A242" s="86" t="s">
         <v>451</v>
       </c>
       <c r="B242" s="9" t="s">
@@ -9562,7 +9581,7 @@
       </c>
     </row>
     <row r="243" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A243" s="86"/>
+      <c r="A243" s="87"/>
       <c r="B243" s="9" t="s">
         <v>1077</v>
       </c>
@@ -9583,7 +9602,7 @@
       <c r="K243" s="31"/>
     </row>
     <row r="244" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A244" s="87"/>
+      <c r="A244" s="88"/>
       <c r="B244" s="9" t="s">
         <v>1079</v>
       </c>
@@ -9619,7 +9638,7 @@
       <c r="K245" s="31"/>
     </row>
     <row r="246" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A246" s="85" t="s">
+      <c r="A246" s="86" t="s">
         <v>457</v>
       </c>
       <c r="B246" s="9" t="s">
@@ -9645,12 +9664,12 @@
       <c r="J246" s="9" t="s">
         <v>465</v>
       </c>
-      <c r="K246" s="84" t="s">
+      <c r="K246" s="85" t="s">
         <v>466</v>
       </c>
     </row>
     <row r="247" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A247" s="86"/>
+      <c r="A247" s="87"/>
       <c r="B247" s="9" t="s">
         <v>467</v>
       </c>
@@ -9668,10 +9687,10 @@
       <c r="J247" s="9" t="s">
         <v>469</v>
       </c>
-      <c r="K247" s="84"/>
+      <c r="K247" s="85"/>
     </row>
     <row r="248" spans="1:11" s="26" customFormat="1" ht="28">
-      <c r="A248" s="86"/>
+      <c r="A248" s="87"/>
       <c r="B248" s="9" t="s">
         <v>470</v>
       </c>
@@ -9691,10 +9710,10 @@
       <c r="J248" s="20" t="s">
         <v>1084</v>
       </c>
-      <c r="K248" s="84"/>
+      <c r="K248" s="85"/>
     </row>
     <row r="249" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A249" s="87"/>
+      <c r="A249" s="88"/>
       <c r="B249" s="9" t="s">
         <v>472</v>
       </c>
@@ -9712,7 +9731,7 @@
         <v>1085</v>
       </c>
       <c r="J249" s="9"/>
-      <c r="K249" s="84"/>
+      <c r="K249" s="85"/>
     </row>
     <row r="250" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A250" s="9"/>
@@ -9728,7 +9747,7 @@
       <c r="K250" s="9"/>
     </row>
     <row r="251" spans="1:11" s="26" customFormat="1" ht="28">
-      <c r="A251" s="85" t="s">
+      <c r="A251" s="86" t="s">
         <v>457</v>
       </c>
       <c r="B251" s="9" t="s">
@@ -9752,12 +9771,12 @@
       <c r="J251" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="K251" s="84" t="s">
+      <c r="K251" s="85" t="s">
         <v>1087</v>
       </c>
     </row>
     <row r="252" spans="1:11" s="26" customFormat="1" ht="28">
-      <c r="A252" s="87"/>
+      <c r="A252" s="88"/>
       <c r="B252" s="9" t="s">
         <v>1135</v>
       </c>
@@ -9777,7 +9796,7 @@
       <c r="J252" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="K252" s="84"/>
+      <c r="K252" s="85"/>
     </row>
     <row r="253" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A253" s="9"/>
@@ -9793,7 +9812,7 @@
       <c r="K253" s="31"/>
     </row>
     <row r="254" spans="1:11">
-      <c r="A254" s="79" t="s">
+      <c r="A254" s="80" t="s">
         <v>479</v>
       </c>
       <c r="B254" s="18" t="s">
@@ -9817,12 +9836,12 @@
       <c r="H254" s="19"/>
       <c r="I254" s="18"/>
       <c r="J254" s="18"/>
-      <c r="K254" s="79" t="s">
+      <c r="K254" s="80" t="s">
         <v>861</v>
       </c>
     </row>
     <row r="255" spans="1:11">
-      <c r="A255" s="80"/>
+      <c r="A255" s="81"/>
       <c r="B255" s="18" t="s">
         <v>862</v>
       </c>
@@ -9836,10 +9855,10 @@
       <c r="H255" s="19"/>
       <c r="I255" s="18"/>
       <c r="J255" s="18"/>
-      <c r="K255" s="80"/>
+      <c r="K255" s="81"/>
     </row>
     <row r="256" spans="1:11">
-      <c r="A256" s="80"/>
+      <c r="A256" s="81"/>
       <c r="B256" s="18" t="s">
         <v>863</v>
       </c>
@@ -9855,10 +9874,10 @@
       <c r="H256" s="19"/>
       <c r="I256" s="18"/>
       <c r="J256" s="18"/>
-      <c r="K256" s="80"/>
+      <c r="K256" s="81"/>
     </row>
     <row r="257" spans="1:11">
-      <c r="A257" s="88"/>
+      <c r="A257" s="89"/>
       <c r="B257" s="18" t="s">
         <v>865</v>
       </c>
@@ -9874,7 +9893,7 @@
       <c r="H257" s="19"/>
       <c r="I257" s="18"/>
       <c r="J257" s="18"/>
-      <c r="K257" s="88"/>
+      <c r="K257" s="89"/>
     </row>
     <row r="258" spans="1:11">
       <c r="A258" s="18"/>
@@ -9890,7 +9909,7 @@
       <c r="K258" s="39"/>
     </row>
     <row r="259" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A259" s="85" t="s">
+      <c r="A259" s="86" t="s">
         <v>479</v>
       </c>
       <c r="B259" s="9" t="s">
@@ -9912,12 +9931,12 @@
       <c r="H259" s="9"/>
       <c r="I259" s="9"/>
       <c r="J259" s="9"/>
-      <c r="K259" s="84" t="s">
+      <c r="K259" s="85" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="260" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A260" s="87"/>
+      <c r="A260" s="88"/>
       <c r="B260" s="9" t="s">
         <v>1089</v>
       </c>
@@ -9931,7 +9950,7 @@
       <c r="H260" s="9"/>
       <c r="I260" s="9"/>
       <c r="J260" s="9"/>
-      <c r="K260" s="84"/>
+      <c r="K260" s="85"/>
     </row>
     <row r="261" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A261" s="9"/>
@@ -9944,10 +9963,10 @@
       <c r="H261" s="9"/>
       <c r="I261" s="9"/>
       <c r="J261" s="9"/>
-      <c r="K261" s="84"/>
+      <c r="K261" s="85"/>
     </row>
     <row r="262" spans="1:11" s="26" customFormat="1" ht="42">
-      <c r="A262" s="85" t="s">
+      <c r="A262" s="86" t="s">
         <v>482</v>
       </c>
       <c r="B262" s="9" t="s">
@@ -9973,12 +9992,12 @@
       <c r="J262" s="9" t="s">
         <v>484</v>
       </c>
-      <c r="K262" s="84" t="s">
+      <c r="K262" s="85" t="s">
         <v>485</v>
       </c>
     </row>
     <row r="263" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A263" s="87"/>
+      <c r="A263" s="88"/>
       <c r="B263" s="9" t="s">
         <v>1092</v>
       </c>
@@ -9998,7 +10017,7 @@
       <c r="J263" s="9" t="s">
         <v>486</v>
       </c>
-      <c r="K263" s="84"/>
+      <c r="K263" s="85"/>
     </row>
     <row r="264" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A264" s="9"/>
@@ -10014,7 +10033,7 @@
       <c r="K264" s="31"/>
     </row>
     <row r="265" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A265" s="85" t="s">
+      <c r="A265" s="86" t="s">
         <v>487</v>
       </c>
       <c r="B265" s="9" t="s">
@@ -10047,7 +10066,7 @@
       </c>
     </row>
     <row r="266" spans="1:11" s="26" customFormat="1" ht="28">
-      <c r="A266" s="87"/>
+      <c r="A266" s="88"/>
       <c r="B266" s="9" t="s">
         <v>493</v>
       </c>
@@ -10087,7 +10106,7 @@
       <c r="K267" s="9"/>
     </row>
     <row r="268" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A268" s="85" t="s">
+      <c r="A268" s="86" t="s">
         <v>487</v>
       </c>
       <c r="B268" s="9" t="s">
@@ -10115,12 +10134,12 @@
       <c r="J268" s="9" t="s">
         <v>505</v>
       </c>
-      <c r="K268" s="84" t="s">
+      <c r="K268" s="85" t="s">
         <v>506</v>
       </c>
     </row>
     <row r="269" spans="1:11" s="26" customFormat="1" ht="28">
-      <c r="A269" s="86"/>
+      <c r="A269" s="87"/>
       <c r="B269" s="9" t="s">
         <v>507</v>
       </c>
@@ -10140,10 +10159,10 @@
       <c r="J269" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="K269" s="84"/>
+      <c r="K269" s="85"/>
     </row>
     <row r="270" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A270" s="87"/>
+      <c r="A270" s="88"/>
       <c r="B270" s="9" t="s">
         <v>509</v>
       </c>
@@ -10157,7 +10176,7 @@
       <c r="H270" s="9"/>
       <c r="I270" s="9"/>
       <c r="J270" s="9"/>
-      <c r="K270" s="84"/>
+      <c r="K270" s="85"/>
     </row>
     <row r="271" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A271" s="9"/>
@@ -10199,7 +10218,7 @@
       <c r="J272" s="18" t="s">
         <v>500</v>
       </c>
-      <c r="K272" s="78" t="s">
+      <c r="K272" s="79" t="s">
         <v>977</v>
       </c>
     </row>
@@ -10222,7 +10241,7 @@
       <c r="J273" s="18" t="s">
         <v>502</v>
       </c>
-      <c r="K273" s="78"/>
+      <c r="K273" s="79"/>
     </row>
     <row r="274" spans="1:11">
       <c r="A274" s="18"/>
@@ -10239,7 +10258,7 @@
       <c r="H274" s="18"/>
       <c r="I274" s="18"/>
       <c r="J274" s="18"/>
-      <c r="K274" s="78"/>
+      <c r="K274" s="79"/>
     </row>
     <row r="275" spans="1:11">
       <c r="A275" s="18"/>
@@ -10256,7 +10275,7 @@
       <c r="H275" s="18"/>
       <c r="I275" s="18"/>
       <c r="J275" s="18"/>
-      <c r="K275" s="78"/>
+      <c r="K275" s="79"/>
     </row>
     <row r="276" spans="1:11">
       <c r="A276" s="18"/>
@@ -10316,7 +10335,7 @@
       <c r="K278" s="21"/>
     </row>
     <row r="279" spans="1:11">
-      <c r="A279" s="79" t="s">
+      <c r="A279" s="80" t="s">
         <v>514</v>
       </c>
       <c r="B279" s="18" t="s">
@@ -10340,12 +10359,12 @@
       <c r="J279" s="18" t="s">
         <v>516</v>
       </c>
-      <c r="K279" s="79" t="s">
+      <c r="K279" s="80" t="s">
         <v>517</v>
       </c>
     </row>
     <row r="280" spans="1:11">
-      <c r="A280" s="80"/>
+      <c r="A280" s="81"/>
       <c r="B280" s="18" t="s">
         <v>518</v>
       </c>
@@ -10363,7 +10382,7 @@
       <c r="J280" s="20" t="s">
         <v>870</v>
       </c>
-      <c r="K280" s="80"/>
+      <c r="K280" s="81"/>
     </row>
     <row r="281" spans="1:11">
       <c r="A281" s="18"/>
@@ -10379,7 +10398,7 @@
       <c r="K281" s="18"/>
     </row>
     <row r="282" spans="1:11">
-      <c r="A282" s="79" t="s">
+      <c r="A282" s="80" t="s">
         <v>514</v>
       </c>
       <c r="B282" s="18" t="s">
@@ -10407,12 +10426,12 @@
       <c r="J282" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="K282" s="78" t="s">
+      <c r="K282" s="79" t="s">
         <v>873</v>
       </c>
     </row>
     <row r="283" spans="1:11">
-      <c r="A283" s="80"/>
+      <c r="A283" s="81"/>
       <c r="B283" s="18" t="s">
         <v>874</v>
       </c>
@@ -10432,10 +10451,10 @@
       <c r="J283" s="18" t="s">
         <v>524</v>
       </c>
-      <c r="K283" s="78"/>
+      <c r="K283" s="79"/>
     </row>
     <row r="284" spans="1:11">
-      <c r="A284" s="80"/>
+      <c r="A284" s="81"/>
       <c r="B284" s="18" t="s">
         <v>525</v>
       </c>
@@ -10453,10 +10472,10 @@
       <c r="J284" s="20" t="s">
         <v>876</v>
       </c>
-      <c r="K284" s="78"/>
+      <c r="K284" s="79"/>
     </row>
     <row r="285" spans="1:11">
-      <c r="A285" s="88"/>
+      <c r="A285" s="89"/>
       <c r="B285" s="18" t="s">
         <v>526</v>
       </c>
@@ -10474,7 +10493,7 @@
       <c r="J285" s="20" t="s">
         <v>878</v>
       </c>
-      <c r="K285" s="78"/>
+      <c r="K285" s="79"/>
     </row>
     <row r="286" spans="1:11">
       <c r="A286" s="18"/>
@@ -10523,7 +10542,7 @@
       <c r="H288" s="18"/>
       <c r="I288" s="18"/>
       <c r="J288" s="18"/>
-      <c r="K288" s="78" t="s">
+      <c r="K288" s="79" t="s">
         <v>546</v>
       </c>
     </row>
@@ -10544,7 +10563,7 @@
       <c r="H289" s="18"/>
       <c r="I289" s="18"/>
       <c r="J289" s="18"/>
-      <c r="K289" s="78"/>
+      <c r="K289" s="79"/>
     </row>
     <row r="290" spans="1:11">
       <c r="A290" s="18"/>
@@ -10584,7 +10603,7 @@
         <v>939</v>
       </c>
       <c r="J291" s="18"/>
-      <c r="K291" s="78" t="s">
+      <c r="K291" s="79" t="s">
         <v>552</v>
       </c>
     </row>
@@ -10611,7 +10630,7 @@
       <c r="J292" s="20" t="s">
         <v>551</v>
       </c>
-      <c r="K292" s="78"/>
+      <c r="K292" s="79"/>
     </row>
     <row r="293" spans="1:11">
       <c r="A293" s="18"/>
@@ -10689,7 +10708,7 @@
       <c r="J296" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="K296" s="78"/>
+      <c r="K296" s="79"/>
     </row>
     <row r="297" spans="1:11" ht="30">
       <c r="A297" s="18"/>
@@ -10710,7 +10729,7 @@
       <c r="J297" s="18" t="s">
         <v>562</v>
       </c>
-      <c r="K297" s="78"/>
+      <c r="K297" s="79"/>
     </row>
     <row r="298" spans="1:11">
       <c r="A298" s="18"/>
@@ -10725,7 +10744,7 @@
       <c r="H298" s="18"/>
       <c r="I298" s="18"/>
       <c r="J298" s="18"/>
-      <c r="K298" s="78"/>
+      <c r="K298" s="79"/>
     </row>
     <row r="299" spans="1:11">
       <c r="A299" s="18"/>
@@ -10741,7 +10760,7 @@
       <c r="K299" s="21"/>
     </row>
     <row r="300" spans="1:11" s="26" customFormat="1">
-      <c r="A300" s="85" t="s">
+      <c r="A300" s="86" t="s">
         <v>563</v>
       </c>
       <c r="B300" s="9" t="s">
@@ -10765,12 +10784,12 @@
       <c r="J300" s="20" t="s">
         <v>1109</v>
       </c>
-      <c r="K300" s="85" t="s">
+      <c r="K300" s="86" t="s">
         <v>1110</v>
       </c>
     </row>
     <row r="301" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A301" s="86"/>
+      <c r="A301" s="87"/>
       <c r="B301" s="9" t="s">
         <v>1111</v>
       </c>
@@ -10786,10 +10805,10 @@
       <c r="H301" s="9"/>
       <c r="I301" s="9"/>
       <c r="J301" s="9"/>
-      <c r="K301" s="86"/>
+      <c r="K301" s="87"/>
     </row>
     <row r="302" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A302" s="86"/>
+      <c r="A302" s="87"/>
       <c r="B302" s="9" t="s">
         <v>1113</v>
       </c>
@@ -10803,10 +10822,10 @@
       <c r="H302" s="9"/>
       <c r="I302" s="9"/>
       <c r="J302" s="9"/>
-      <c r="K302" s="87"/>
+      <c r="K302" s="88"/>
     </row>
     <row r="303" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A303" s="87"/>
+      <c r="A303" s="88"/>
       <c r="B303" s="9"/>
       <c r="C303" s="70"/>
       <c r="D303" s="70"/>
@@ -10832,7 +10851,7 @@
       <c r="K304" s="31"/>
     </row>
     <row r="305" spans="1:11" ht="30">
-      <c r="A305" s="79" t="s">
+      <c r="A305" s="80" t="s">
         <v>563</v>
       </c>
       <c r="B305" s="18" t="s">
@@ -10854,12 +10873,12 @@
       <c r="J305" s="20" t="s">
         <v>882</v>
       </c>
-      <c r="K305" s="79" t="s">
+      <c r="K305" s="80" t="s">
         <v>883</v>
       </c>
     </row>
     <row r="306" spans="1:11">
-      <c r="A306" s="88"/>
+      <c r="A306" s="89"/>
       <c r="B306" s="18" t="s">
         <v>884</v>
       </c>
@@ -10875,7 +10894,7 @@
       <c r="H306" s="19"/>
       <c r="I306" s="18"/>
       <c r="J306" s="20"/>
-      <c r="K306" s="88"/>
+      <c r="K306" s="89"/>
     </row>
     <row r="307" spans="1:11">
       <c r="A307" s="18"/>
@@ -10891,7 +10910,7 @@
       <c r="K307" s="18"/>
     </row>
     <row r="308" spans="1:11" s="26" customFormat="1" ht="42">
-      <c r="A308" s="85" t="s">
+      <c r="A308" s="86" t="s">
         <v>563</v>
       </c>
       <c r="B308" s="9" t="s">
@@ -10917,12 +10936,12 @@
       <c r="J308" s="20" t="s">
         <v>1102</v>
       </c>
-      <c r="K308" s="85" t="s">
+      <c r="K308" s="86" t="s">
         <v>1103</v>
       </c>
     </row>
     <row r="309" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A309" s="86"/>
+      <c r="A309" s="87"/>
       <c r="B309" s="9" t="s">
         <v>1104</v>
       </c>
@@ -10938,10 +10957,10 @@
       <c r="H309" s="9"/>
       <c r="I309" s="9"/>
       <c r="J309" s="9"/>
-      <c r="K309" s="86"/>
+      <c r="K309" s="87"/>
     </row>
     <row r="310" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A310" s="86"/>
+      <c r="A310" s="87"/>
       <c r="B310" s="9" t="s">
         <v>1106</v>
       </c>
@@ -10955,10 +10974,10 @@
       <c r="H310" s="9"/>
       <c r="I310" s="9"/>
       <c r="J310" s="9"/>
-      <c r="K310" s="86"/>
+      <c r="K310" s="87"/>
     </row>
     <row r="311" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A311" s="87"/>
+      <c r="A311" s="88"/>
       <c r="B311" s="9" t="s">
         <v>1107</v>
       </c>
@@ -10972,7 +10991,7 @@
       <c r="H311" s="9"/>
       <c r="I311" s="9"/>
       <c r="J311" s="9"/>
-      <c r="K311" s="87"/>
+      <c r="K311" s="88"/>
     </row>
     <row r="312" spans="1:11" s="26" customFormat="1" ht="14">
       <c r="A312" s="9"/>
@@ -11030,7 +11049,7 @@
       <c r="K314" s="31"/>
     </row>
     <row r="315" spans="1:11" ht="30">
-      <c r="A315" s="79" t="s">
+      <c r="A315" s="80" t="s">
         <v>563</v>
       </c>
       <c r="B315" s="18" t="s">
@@ -11058,12 +11077,12 @@
       <c r="J315" s="18" t="s">
         <v>567</v>
       </c>
-      <c r="K315" s="79" t="s">
+      <c r="K315" s="80" t="s">
         <v>568</v>
       </c>
     </row>
     <row r="316" spans="1:11" ht="45">
-      <c r="A316" s="80"/>
+      <c r="A316" s="81"/>
       <c r="B316" s="18" t="s">
         <v>569</v>
       </c>
@@ -11085,7 +11104,7 @@
       <c r="J316" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="K316" s="80"/>
+      <c r="K316" s="81"/>
     </row>
     <row r="317" spans="1:11">
       <c r="A317" s="18"/>
@@ -11169,7 +11188,7 @@
       <c r="J320" s="18" t="s">
         <v>580</v>
       </c>
-      <c r="K320" s="78" t="s">
+      <c r="K320" s="79" t="s">
         <v>985</v>
       </c>
     </row>
@@ -11194,7 +11213,7 @@
       <c r="J321" s="18" t="s">
         <v>583</v>
       </c>
-      <c r="K321" s="78"/>
+      <c r="K321" s="79"/>
     </row>
     <row r="322" spans="1:11">
       <c r="A322" s="18"/>
@@ -11275,7 +11294,7 @@
       <c r="K325" s="21"/>
     </row>
     <row r="326" spans="1:11">
-      <c r="A326" s="79" t="s">
+      <c r="A326" s="80" t="s">
         <v>621</v>
       </c>
       <c r="B326" s="18" t="s">
@@ -11303,12 +11322,12 @@
       <c r="J326" s="20" t="s">
         <v>890</v>
       </c>
-      <c r="K326" s="78" t="s">
+      <c r="K326" s="79" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="327" spans="1:11">
-      <c r="A327" s="80"/>
+      <c r="A327" s="81"/>
       <c r="B327" s="18" t="s">
         <v>629</v>
       </c>
@@ -11328,10 +11347,10 @@
       <c r="J327" s="18" t="s">
         <v>631</v>
       </c>
-      <c r="K327" s="78"/>
+      <c r="K327" s="79"/>
     </row>
     <row r="328" spans="1:11">
-      <c r="A328" s="80"/>
+      <c r="A328" s="81"/>
       <c r="B328" s="18" t="s">
         <v>632</v>
       </c>
@@ -11345,10 +11364,10 @@
       <c r="H328" s="19"/>
       <c r="I328" s="18"/>
       <c r="J328" s="18"/>
-      <c r="K328" s="78"/>
+      <c r="K328" s="79"/>
     </row>
     <row r="329" spans="1:11">
-      <c r="A329" s="88"/>
+      <c r="A329" s="89"/>
       <c r="B329" s="18" t="s">
         <v>633</v>
       </c>
@@ -11362,7 +11381,7 @@
       <c r="H329" s="19"/>
       <c r="I329" s="18"/>
       <c r="J329" s="18"/>
-      <c r="K329" s="78"/>
+      <c r="K329" s="79"/>
     </row>
     <row r="330" spans="1:11">
       <c r="A330" s="18"/>
@@ -11378,7 +11397,7 @@
       <c r="K330" s="18"/>
     </row>
     <row r="331" spans="1:11" s="26" customFormat="1">
-      <c r="A331" s="81" t="s">
+      <c r="A331" s="82" t="s">
         <v>621</v>
       </c>
       <c r="B331" s="9" t="s">
@@ -11404,12 +11423,12 @@
       <c r="J331" s="20" t="s">
         <v>1115</v>
       </c>
-      <c r="K331" s="84" t="s">
+      <c r="K331" s="85" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="332" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A332" s="82"/>
+      <c r="A332" s="83"/>
       <c r="B332" s="9" t="s">
         <v>639</v>
       </c>
@@ -11429,10 +11448,10 @@
       <c r="J332" s="9" t="s">
         <v>637</v>
       </c>
-      <c r="K332" s="84"/>
+      <c r="K332" s="85"/>
     </row>
     <row r="333" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A333" s="82"/>
+      <c r="A333" s="83"/>
       <c r="B333" s="9" t="s">
         <v>1116</v>
       </c>
@@ -11446,10 +11465,10 @@
       <c r="H333" s="9"/>
       <c r="I333" s="9"/>
       <c r="J333" s="9"/>
-      <c r="K333" s="84"/>
+      <c r="K333" s="85"/>
     </row>
     <row r="334" spans="1:11" s="26" customFormat="1" ht="14">
-      <c r="A334" s="83"/>
+      <c r="A334" s="84"/>
       <c r="B334" s="9" t="s">
         <v>1117</v>
       </c>
@@ -11463,7 +11482,7 @@
       <c r="H334" s="9"/>
       <c r="I334" s="9"/>
       <c r="J334" s="9"/>
-      <c r="K334" s="84"/>
+      <c r="K334" s="85"/>
     </row>
     <row r="335" spans="1:11" s="26" customFormat="1">
       <c r="A335" s="41"/>
@@ -11479,7 +11498,7 @@
       <c r="K335" s="31"/>
     </row>
     <row r="336" spans="1:11" ht="30">
-      <c r="A336" s="79" t="s">
+      <c r="A336" s="80" t="s">
         <v>621</v>
       </c>
       <c r="B336" s="18" t="s">
@@ -11507,12 +11526,12 @@
       <c r="J336" s="18" t="s">
         <v>648</v>
       </c>
-      <c r="K336" s="78" t="s">
+      <c r="K336" s="79" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="337" spans="1:11">
-      <c r="A337" s="80"/>
+      <c r="A337" s="81"/>
       <c r="B337" s="18" t="s">
         <v>650</v>
       </c>
@@ -11532,10 +11551,10 @@
       <c r="J337" s="18" t="s">
         <v>652</v>
       </c>
-      <c r="K337" s="78"/>
+      <c r="K337" s="79"/>
     </row>
     <row r="338" spans="1:11">
-      <c r="A338" s="88"/>
+      <c r="A338" s="89"/>
       <c r="B338" s="18" t="s">
         <v>653</v>
       </c>
@@ -11549,7 +11568,7 @@
       <c r="H338" s="19"/>
       <c r="I338" s="18"/>
       <c r="J338" s="18"/>
-      <c r="K338" s="78"/>
+      <c r="K338" s="79"/>
     </row>
     <row r="339" spans="1:11">
       <c r="A339" s="18"/>
@@ -11611,7 +11630,7 @@
       <c r="K341" s="21"/>
     </row>
     <row r="342" spans="1:11" ht="30">
-      <c r="A342" s="79" t="s">
+      <c r="A342" s="80" t="s">
         <v>666</v>
       </c>
       <c r="B342" s="18" t="s">
@@ -11639,12 +11658,12 @@
       <c r="J342" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="K342" s="78" t="s">
+      <c r="K342" s="79" t="s">
         <v>897</v>
       </c>
     </row>
     <row r="343" spans="1:11" ht="30">
-      <c r="A343" s="80"/>
+      <c r="A343" s="81"/>
       <c r="B343" s="18" t="s">
         <v>898</v>
       </c>
@@ -11666,10 +11685,10 @@
       <c r="J343" s="18" t="s">
         <v>671</v>
       </c>
-      <c r="K343" s="78"/>
+      <c r="K343" s="79"/>
     </row>
     <row r="344" spans="1:11">
-      <c r="A344" s="80"/>
+      <c r="A344" s="81"/>
       <c r="B344" s="18" t="s">
         <v>901</v>
       </c>
@@ -11685,10 +11704,10 @@
       <c r="H344" s="19"/>
       <c r="I344" s="18"/>
       <c r="J344" s="18"/>
-      <c r="K344" s="78"/>
+      <c r="K344" s="79"/>
     </row>
     <row r="345" spans="1:11">
-      <c r="A345" s="88"/>
+      <c r="A345" s="89"/>
       <c r="B345" s="18" t="s">
         <v>903</v>
       </c>
@@ -11702,7 +11721,7 @@
       <c r="H345" s="19"/>
       <c r="I345" s="18"/>
       <c r="J345" s="18"/>
-      <c r="K345" s="78"/>
+      <c r="K345" s="79"/>
     </row>
     <row r="346" spans="1:11">
       <c r="A346" s="45"/>
@@ -11757,7 +11776,7 @@
       <c r="K349" s="18"/>
     </row>
     <row r="350" spans="1:11" ht="30">
-      <c r="A350" s="79" t="s">
+      <c r="A350" s="80" t="s">
         <v>672</v>
       </c>
       <c r="B350" s="18" t="s">
@@ -11783,12 +11802,12 @@
       <c r="J350" s="18" t="s">
         <v>675</v>
       </c>
-      <c r="K350" s="78" t="s">
+      <c r="K350" s="79" t="s">
         <v>905</v>
       </c>
     </row>
     <row r="351" spans="1:11" ht="30">
-      <c r="A351" s="80"/>
+      <c r="A351" s="81"/>
       <c r="B351" s="18" t="s">
         <v>906</v>
       </c>
@@ -11808,10 +11827,10 @@
       <c r="J351" s="18" t="s">
         <v>677</v>
       </c>
-      <c r="K351" s="78"/>
+      <c r="K351" s="79"/>
     </row>
     <row r="352" spans="1:11">
-      <c r="A352" s="80"/>
+      <c r="A352" s="81"/>
       <c r="B352" s="18" t="s">
         <v>908</v>
       </c>
@@ -11825,10 +11844,10 @@
       <c r="H352" s="19"/>
       <c r="I352" s="18"/>
       <c r="J352" s="18"/>
-      <c r="K352" s="78"/>
+      <c r="K352" s="79"/>
     </row>
     <row r="353" spans="1:11">
-      <c r="A353" s="88"/>
+      <c r="A353" s="89"/>
       <c r="B353" s="18" t="s">
         <v>909</v>
       </c>
@@ -11842,7 +11861,7 @@
       <c r="H353" s="19"/>
       <c r="I353" s="18"/>
       <c r="J353" s="18"/>
-      <c r="K353" s="78"/>
+      <c r="K353" s="79"/>
     </row>
     <row r="354" spans="1:11" s="13" customFormat="1">
       <c r="A354" s="10"/>
@@ -11858,7 +11877,7 @@
       <c r="K354" s="12"/>
     </row>
     <row r="355" spans="1:11">
-      <c r="A355" s="79" t="s">
+      <c r="A355" s="80" t="s">
         <v>686</v>
       </c>
       <c r="B355" s="18" t="s">
@@ -11886,12 +11905,12 @@
       <c r="J355" s="18" t="s">
         <v>690</v>
       </c>
-      <c r="K355" s="78" t="s">
+      <c r="K355" s="79" t="s">
         <v>912</v>
       </c>
     </row>
     <row r="356" spans="1:11">
-      <c r="A356" s="80"/>
+      <c r="A356" s="81"/>
       <c r="B356" s="18" t="s">
         <v>691</v>
       </c>
@@ -11911,10 +11930,10 @@
       <c r="J356" s="18" t="s">
         <v>693</v>
       </c>
-      <c r="K356" s="78"/>
+      <c r="K356" s="79"/>
     </row>
     <row r="357" spans="1:11">
-      <c r="A357" s="88"/>
+      <c r="A357" s="89"/>
       <c r="B357" s="18" t="s">
         <v>1138</v>
       </c>
@@ -11926,7 +11945,7 @@
       <c r="H357" s="19"/>
       <c r="I357" s="18"/>
       <c r="J357" s="18"/>
-      <c r="K357" s="78"/>
+      <c r="K357" s="79"/>
     </row>
     <row r="358" spans="1:11">
       <c r="A358" s="18"/>
@@ -11968,7 +11987,7 @@
       <c r="J359" s="18" t="s">
         <v>697</v>
       </c>
-      <c r="K359" s="78" t="s">
+      <c r="K359" s="79" t="s">
         <v>698</v>
       </c>
     </row>
@@ -11993,7 +12012,7 @@
       <c r="J360" s="18" t="s">
         <v>701</v>
       </c>
-      <c r="K360" s="78"/>
+      <c r="K360" s="79"/>
     </row>
     <row r="361" spans="1:11" s="26" customFormat="1">
       <c r="A361" s="41"/>
@@ -12129,7 +12148,7 @@
       <c r="H368" s="2"/>
       <c r="I368" s="2"/>
       <c r="J368" s="2"/>
-      <c r="K368" s="89" t="s">
+      <c r="K368" s="90" t="s">
         <v>43</v>
       </c>
     </row>
@@ -12150,7 +12169,7 @@
       </c>
       <c r="I369" s="1"/>
       <c r="J369" s="2"/>
-      <c r="K369" s="89"/>
+      <c r="K369" s="90"/>
     </row>
     <row r="370" spans="1:11">
       <c r="A370" s="2"/>
@@ -12256,7 +12275,7 @@
       <c r="J375" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="K375" s="89" t="s">
+      <c r="K375" s="90" t="s">
         <v>135</v>
       </c>
     </row>
@@ -12279,7 +12298,7 @@
       <c r="J376" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="K376" s="89"/>
+      <c r="K376" s="90"/>
     </row>
     <row r="377" spans="1:11">
       <c r="A377" s="2"/>
@@ -12349,7 +12368,7 @@
       <c r="J380" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="K380" s="89" t="s">
+      <c r="K380" s="90" t="s">
         <v>173</v>
       </c>
     </row>
@@ -12370,7 +12389,7 @@
       <c r="J381" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="K381" s="89"/>
+      <c r="K381" s="90"/>
     </row>
     <row r="382" spans="1:11">
       <c r="A382" s="1"/>
@@ -12406,7 +12425,7 @@
       <c r="J383" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="K383" s="89" t="s">
+      <c r="K383" s="90" t="s">
         <v>188</v>
       </c>
     </row>
@@ -12423,7 +12442,7 @@
       <c r="H384" s="2"/>
       <c r="I384" s="2"/>
       <c r="J384" s="2"/>
-      <c r="K384" s="89"/>
+      <c r="K384" s="90"/>
     </row>
     <row r="385" spans="1:11">
       <c r="A385" s="2"/>
@@ -12438,7 +12457,7 @@
       <c r="H385" s="2"/>
       <c r="I385" s="2"/>
       <c r="J385" s="2"/>
-      <c r="K385" s="89"/>
+      <c r="K385" s="90"/>
     </row>
     <row r="386" spans="1:11">
       <c r="A386" s="2"/>
@@ -12565,7 +12584,7 @@
       <c r="J392" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="K392" s="89" t="s">
+      <c r="K392" s="90" t="s">
         <v>237</v>
       </c>
     </row>
@@ -12582,7 +12601,7 @@
       <c r="H393" s="2"/>
       <c r="I393" s="2"/>
       <c r="J393" s="2"/>
-      <c r="K393" s="89"/>
+      <c r="K393" s="90"/>
     </row>
     <row r="394" spans="1:11">
       <c r="A394" s="2"/>
@@ -12597,7 +12616,7 @@
       <c r="H394" s="2"/>
       <c r="I394" s="2"/>
       <c r="J394" s="2"/>
-      <c r="K394" s="89"/>
+      <c r="K394" s="90"/>
     </row>
     <row r="395" spans="1:11">
       <c r="A395" s="2"/>
@@ -12733,7 +12752,7 @@
       <c r="H402" s="1"/>
       <c r="I402" s="1"/>
       <c r="J402" s="1"/>
-      <c r="K402" s="89" t="s">
+      <c r="K402" s="90" t="s">
         <v>332</v>
       </c>
     </row>
@@ -12750,7 +12769,7 @@
       <c r="H403" s="2"/>
       <c r="I403" s="2"/>
       <c r="J403" s="2"/>
-      <c r="K403" s="89"/>
+      <c r="K403" s="90"/>
     </row>
     <row r="404" spans="1:11">
       <c r="A404" s="2"/>
@@ -12820,7 +12839,7 @@
       <c r="J407" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="K407" s="89" t="s">
+      <c r="K407" s="90" t="s">
         <v>381</v>
       </c>
     </row>
@@ -12841,7 +12860,7 @@
       <c r="J408" s="1" t="s">
         <v>384</v>
       </c>
-      <c r="K408" s="89"/>
+      <c r="K408" s="90"/>
     </row>
     <row r="409" spans="1:11">
       <c r="A409" s="2"/>
@@ -12856,7 +12875,7 @@
       <c r="H409" s="2"/>
       <c r="I409" s="2"/>
       <c r="J409" s="2"/>
-      <c r="K409" s="89"/>
+      <c r="K409" s="90"/>
     </row>
     <row r="410" spans="1:11">
       <c r="A410" s="2"/>
@@ -12871,7 +12890,7 @@
       <c r="H410" s="2"/>
       <c r="I410" s="2"/>
       <c r="J410" s="2"/>
-      <c r="K410" s="89"/>
+      <c r="K410" s="90"/>
     </row>
     <row r="411" spans="1:11">
       <c r="A411" s="1"/>
@@ -12911,7 +12930,7 @@
       <c r="J412" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="K412" s="89" t="s">
+      <c r="K412" s="90" t="s">
         <v>417</v>
       </c>
     </row>
@@ -12932,7 +12951,7 @@
       <c r="J413" s="1" t="s">
         <v>420</v>
       </c>
-      <c r="K413" s="89"/>
+      <c r="K413" s="90"/>
     </row>
     <row r="414" spans="1:11">
       <c r="A414" s="2"/>
@@ -12947,7 +12966,7 @@
       <c r="H414" s="2"/>
       <c r="I414" s="2"/>
       <c r="J414" s="2"/>
-      <c r="K414" s="89"/>
+      <c r="K414" s="90"/>
     </row>
     <row r="415" spans="1:11">
       <c r="A415" s="2"/>
@@ -12964,7 +12983,7 @@
       <c r="J415" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="K415" s="89"/>
+      <c r="K415" s="90"/>
     </row>
     <row r="416" spans="1:11">
       <c r="A416" s="2"/>
@@ -12998,7 +13017,7 @@
       <c r="H417" s="1"/>
       <c r="I417" s="1"/>
       <c r="J417" s="1"/>
-      <c r="K417" s="89" t="s">
+      <c r="K417" s="90" t="s">
         <v>448</v>
       </c>
     </row>
@@ -13017,7 +13036,7 @@
       <c r="J418" s="1" t="s">
         <v>450</v>
       </c>
-      <c r="K418" s="89"/>
+      <c r="K418" s="90"/>
     </row>
     <row r="419" spans="1:11">
       <c r="A419" s="2"/>
@@ -13169,7 +13188,7 @@
       <c r="J426" s="1" t="s">
         <v>541</v>
       </c>
-      <c r="K426" s="89" t="s">
+      <c r="K426" s="90" t="s">
         <v>542</v>
       </c>
     </row>
@@ -13188,7 +13207,7 @@
       <c r="H427" s="2"/>
       <c r="I427" s="2"/>
       <c r="J427" s="2"/>
-      <c r="K427" s="89"/>
+      <c r="K427" s="90"/>
     </row>
     <row r="428" spans="1:11">
       <c r="A428" s="1"/>
@@ -13354,7 +13373,7 @@
       <c r="J437" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="K437" s="89" t="s">
+      <c r="K437" s="90" t="s">
         <v>607</v>
       </c>
     </row>
@@ -13375,7 +13394,7 @@
       <c r="J438" s="2" t="s">
         <v>610</v>
       </c>
-      <c r="K438" s="89"/>
+      <c r="K438" s="90"/>
     </row>
     <row r="439" spans="1:11">
       <c r="A439" s="2"/>
@@ -13390,7 +13409,7 @@
       <c r="H439" s="2"/>
       <c r="I439" s="2"/>
       <c r="J439" s="2"/>
-      <c r="K439" s="89"/>
+      <c r="K439" s="90"/>
     </row>
     <row r="440" spans="1:11">
       <c r="A440" s="2"/>
@@ -13405,7 +13424,7 @@
       <c r="H440" s="2"/>
       <c r="I440" s="2"/>
       <c r="J440" s="2"/>
-      <c r="K440" s="89"/>
+      <c r="K440" s="90"/>
     </row>
     <row r="441" spans="1:11">
       <c r="A441" s="2"/>
@@ -13420,7 +13439,7 @@
       <c r="H441" s="2"/>
       <c r="I441" s="2"/>
       <c r="J441" s="2"/>
-      <c r="K441" s="89"/>
+      <c r="K441" s="90"/>
     </row>
     <row r="442" spans="1:11">
       <c r="A442" s="2"/>
@@ -13458,7 +13477,7 @@
       <c r="J443" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="K443" s="89" t="s">
+      <c r="K443" s="90" t="s">
         <v>618</v>
       </c>
     </row>
@@ -13475,7 +13494,7 @@
       <c r="H444" s="2"/>
       <c r="I444" s="2"/>
       <c r="J444" s="2"/>
-      <c r="K444" s="89"/>
+      <c r="K444" s="90"/>
     </row>
     <row r="445" spans="1:11">
       <c r="A445" s="2"/>
@@ -13490,7 +13509,7 @@
       <c r="H445" s="2"/>
       <c r="I445" s="2"/>
       <c r="J445" s="2"/>
-      <c r="K445" s="89"/>
+      <c r="K445" s="90"/>
     </row>
     <row r="446" spans="1:11">
       <c r="A446" s="2"/>
@@ -13712,6 +13731,36 @@
       <c r="I458" s="2"/>
       <c r="J458" s="2"/>
       <c r="K458" s="2"/>
+    </row>
+    <row r="459" spans="1:11">
+      <c r="A459" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B459" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C459" s="75"/>
+      <c r="D459" s="74"/>
+      <c r="E459" s="2"/>
+      <c r="F459" s="2"/>
+      <c r="G459" s="2"/>
+      <c r="H459" s="2"/>
+      <c r="I459" s="2"/>
+      <c r="J459" s="2"/>
+      <c r="K459" s="2"/>
+    </row>
+    <row r="460" spans="1:11">
+      <c r="A460" s="2"/>
+      <c r="B460" s="2"/>
+      <c r="C460" s="75"/>
+      <c r="D460" s="74"/>
+      <c r="E460" s="2"/>
+      <c r="F460" s="2"/>
+      <c r="G460" s="2"/>
+      <c r="H460" s="2"/>
+      <c r="I460" s="2"/>
+      <c r="J460" s="2"/>
+      <c r="K460" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="106">
@@ -13742,7 +13791,6 @@
     <mergeCell ref="K326:K329"/>
     <mergeCell ref="A355:A357"/>
     <mergeCell ref="K355:K357"/>
-    <mergeCell ref="K151:K154"/>
     <mergeCell ref="K167:K168"/>
     <mergeCell ref="K156:K157"/>
     <mergeCell ref="K163:K165"/>
@@ -13761,11 +13809,11 @@
     <mergeCell ref="K246:K249"/>
     <mergeCell ref="A251:A252"/>
     <mergeCell ref="K251:K252"/>
-    <mergeCell ref="K121:K124"/>
-    <mergeCell ref="K109:K112"/>
-    <mergeCell ref="K130:K133"/>
-    <mergeCell ref="K141:K144"/>
-    <mergeCell ref="K62:K65"/>
+    <mergeCell ref="K170:K171"/>
+    <mergeCell ref="K173:K175"/>
+    <mergeCell ref="K192:K194"/>
+    <mergeCell ref="K177:K178"/>
+    <mergeCell ref="K184:K185"/>
     <mergeCell ref="K52:K55"/>
     <mergeCell ref="K57:K60"/>
     <mergeCell ref="K69:K71"/>
@@ -13774,11 +13822,7 @@
     <mergeCell ref="K85:K86"/>
     <mergeCell ref="K88:K90"/>
     <mergeCell ref="K126:K128"/>
-    <mergeCell ref="K170:K171"/>
-    <mergeCell ref="K173:K175"/>
-    <mergeCell ref="K192:K194"/>
-    <mergeCell ref="K177:K178"/>
-    <mergeCell ref="K184:K185"/>
+    <mergeCell ref="K151:K154"/>
     <mergeCell ref="K187:K190"/>
     <mergeCell ref="A282:A285"/>
     <mergeCell ref="K282:K285"/>
@@ -13798,6 +13842,11 @@
     <mergeCell ref="A97:A98"/>
     <mergeCell ref="K97:K98"/>
     <mergeCell ref="A92:A93"/>
+    <mergeCell ref="K121:K124"/>
+    <mergeCell ref="K109:K112"/>
+    <mergeCell ref="K130:K133"/>
+    <mergeCell ref="K141:K144"/>
+    <mergeCell ref="K62:K65"/>
     <mergeCell ref="K288:K289"/>
     <mergeCell ref="K291:K292"/>
     <mergeCell ref="K200:K201"/>
